--- a/mcmaster_excel/Metric_Aluminum_Ultra-Wide_Flanged_Button_Head_Screws.xlsx
+++ b/mcmaster_excel/Metric_Aluminum_Ultra-Wide_Flanged_Button_Head_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,206 +434,128 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg., mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Dia.,mm.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Thick.,mm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia., mm</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHt., mm</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Style</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Size,mm</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr"/>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Each</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12.80</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
+          <t>Flange</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Hex</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>40,000</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>94559A701</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>$4.03</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>6061 Aluminum</t>
-        </is>
-      </c>
+          <t>Drive</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Lg., mm</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12.80</t>
+          <t>Dia.,mm.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>Thick.,mm</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>HeadDia., mm</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>HeadHt., mm</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hex</t>
+          <t>Style</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Size,mm</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>40,000</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>94559A702</t>
-        </is>
-      </c>
+          <t>TensileStrength, psi</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>6061 Aluminum</t>
-        </is>
-      </c>
+          <t>Each</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -678,12 +600,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>94559A703</t>
+          <t>94559A701</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>$4.03</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -700,7 +622,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -745,12 +667,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>94559A704</t>
+          <t>94559A702</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -767,7 +689,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -812,12 +734,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>94559A705</t>
+          <t>94559A703</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -834,7 +756,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -844,7 +766,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16.50</t>
+          <t>12.80</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -854,12 +776,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -869,7 +791,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -879,17 +801,17 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>94559A711</t>
+          <t>94559A704</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>M4 × 0.7 mm</t>
+          <t>M3 × 0.5 mm</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -901,7 +823,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -911,7 +833,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16.50</t>
+          <t>12.80</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -921,12 +843,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -936,7 +858,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -946,17 +868,17 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>94559A712</t>
+          <t>94559A705</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>M4 × 0.7 mm</t>
+          <t>M3 × 0.5 mm</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -968,7 +890,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1013,12 +935,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>94559A713</t>
+          <t>94559A711</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1035,7 +957,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1080,12 +1002,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>94559A714</t>
+          <t>94559A712</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1102,7 +1024,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1147,12 +1069,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>94559A715</t>
+          <t>94559A713</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1169,7 +1091,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1179,7 +1101,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>19.10</t>
+          <t>16.50</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1189,12 +1111,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>7.60</t>
+          <t>6.40</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1204,7 +1126,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1214,17 +1136,17 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>94559A721</t>
+          <t>94559A714</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>M5 × 0.8 mm</t>
+          <t>M4 × 0.7 mm</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1236,7 +1158,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1246,7 +1168,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>19.10</t>
+          <t>16.50</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1256,12 +1178,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>7.60</t>
+          <t>6.40</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1271,7 +1193,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1281,17 +1203,17 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>94559A722</t>
+          <t>94559A715</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>M5 × 0.8 mm</t>
+          <t>M4 × 0.7 mm</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1303,7 +1225,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1348,12 +1270,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>94559A723</t>
+          <t>94559A721</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1370,7 +1292,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1415,12 +1337,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>94559A724</t>
+          <t>94559A722</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1437,7 +1359,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1482,12 +1404,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>94559A725</t>
+          <t>94559A723</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>5.34</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1504,7 +1426,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1514,7 +1436,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>20.30</t>
+          <t>19.10</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1524,7 +1446,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>9.70</t>
+          <t>7.60</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1539,7 +1461,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1549,17 +1471,17 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>94559A731</t>
+          <t>94559A724</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>M6 × 1 mm</t>
+          <t>M5 × 0.8 mm</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1571,7 +1493,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1581,7 +1503,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>20.30</t>
+          <t>19.10</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1591,7 +1513,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>9.70</t>
+          <t>7.60</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1606,7 +1528,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1616,17 +1538,17 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>94559A732</t>
+          <t>94559A725</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>M6 × 1 mm</t>
+          <t>M5 × 0.8 mm</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1638,7 +1560,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1683,12 +1605,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>94559A733</t>
+          <t>94559A731</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>6.97</t>
+          <t>5.63</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1705,7 +1627,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1750,12 +1672,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>94559A734</t>
+          <t>94559A732</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>7.56</t>
+          <t>6.12</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1772,65 +1694,199 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>20.30</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>40,000</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>94559A733</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>6061 Aluminum</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>20.30</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>40,000</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>94559A734</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>6061 Aluminum</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
         <is>
           <t>20.30</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>9.70</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>5.30</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Hex</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>40,000</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>40,000</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
         <is>
           <t>94559A735</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>10.74</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>M6 × 1 mm</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>6061 Aluminum</t>
         </is>
